--- a/INTLINE/data/158/MOF/TRADE/COUN/Central and Eastern Europe.xlsx
+++ b/INTLINE/data/158/MOF/TRADE/COUN/Central and Eastern Europe.xlsx
@@ -4580,7 +4580,7 @@
         <v>176559660</v>
       </c>
       <c r="TA2" t="n">
-        <v>0</v>
+        <v>168770246</v>
       </c>
       <c r="TB2" t="n">
         <v>0</v>
@@ -6173,10 +6173,10 @@
         <v>254203411</v>
       </c>
       <c r="SZ3" t="n">
-        <v>288745279</v>
+        <v>289919241</v>
       </c>
       <c r="TA3" t="n">
-        <v>0</v>
+        <v>262054313</v>
       </c>
       <c r="TB3" t="n">
         <v>0</v>
@@ -7772,7 +7772,7 @@
         <v>90413</v>
       </c>
       <c r="TA4" t="n">
-        <v>0</v>
+        <v>357166</v>
       </c>
       <c r="TB4" t="n">
         <v>0</v>
@@ -9368,7 +9368,7 @@
         <v>65608</v>
       </c>
       <c r="TA5" t="n">
-        <v>0</v>
+        <v>118499</v>
       </c>
       <c r="TB5" t="n">
         <v>0</v>
@@ -10964,7 +10964,7 @@
         <v>37007</v>
       </c>
       <c r="TA6" t="n">
-        <v>0</v>
+        <v>25007</v>
       </c>
       <c r="TB6" t="n">
         <v>0</v>
@@ -12560,7 +12560,7 @@
         <v>94453</v>
       </c>
       <c r="TA7" t="n">
-        <v>0</v>
+        <v>81102</v>
       </c>
       <c r="TB7" t="n">
         <v>0</v>
@@ -14156,7 +14156,7 @@
         <v>1663700</v>
       </c>
       <c r="TA8" t="n">
-        <v>0</v>
+        <v>804525</v>
       </c>
       <c r="TB8" t="n">
         <v>0</v>
@@ -15752,7 +15752,7 @@
         <v>88516</v>
       </c>
       <c r="TA9" t="n">
-        <v>0</v>
+        <v>455516</v>
       </c>
       <c r="TB9" t="n">
         <v>0</v>
@@ -17348,7 +17348,7 @@
         <v>4540862</v>
       </c>
       <c r="TA10" t="n">
-        <v>0</v>
+        <v>5480439</v>
       </c>
       <c r="TB10" t="n">
         <v>0</v>
@@ -18941,10 +18941,10 @@
         <v>7768869</v>
       </c>
       <c r="SZ11" t="n">
-        <v>16510506</v>
+        <v>16513498</v>
       </c>
       <c r="TA11" t="n">
-        <v>0</v>
+        <v>6331741</v>
       </c>
       <c r="TB11" t="n">
         <v>0</v>
@@ -20540,7 +20540,7 @@
         <v>311208</v>
       </c>
       <c r="TA12" t="n">
-        <v>0</v>
+        <v>249723</v>
       </c>
       <c r="TB12" t="n">
         <v>0</v>
@@ -22136,7 +22136,7 @@
         <v>9086</v>
       </c>
       <c r="TA13" t="n">
-        <v>0</v>
+        <v>2856</v>
       </c>
       <c r="TB13" t="n">
         <v>0</v>
@@ -23732,7 +23732,7 @@
         <v>442867</v>
       </c>
       <c r="TA14" t="n">
-        <v>0</v>
+        <v>244602</v>
       </c>
       <c r="TB14" t="n">
         <v>0</v>
@@ -25328,7 +25328,7 @@
         <v>0</v>
       </c>
       <c r="TA15" t="n">
-        <v>0</v>
+        <v>81701</v>
       </c>
       <c r="TB15" t="n">
         <v>0</v>
@@ -26924,7 +26924,7 @@
         <v>60472</v>
       </c>
       <c r="TA16" t="n">
-        <v>0</v>
+        <v>102529</v>
       </c>
       <c r="TB16" t="n">
         <v>0</v>
@@ -28520,7 +28520,7 @@
         <v>2229</v>
       </c>
       <c r="TA17" t="n">
-        <v>0</v>
+        <v>327</v>
       </c>
       <c r="TB17" t="n">
         <v>0</v>
@@ -30116,7 +30116,7 @@
         <v>1924613</v>
       </c>
       <c r="TA18" t="n">
-        <v>0</v>
+        <v>2886031</v>
       </c>
       <c r="TB18" t="n">
         <v>0</v>
@@ -31712,7 +31712,7 @@
         <v>206557</v>
       </c>
       <c r="TA19" t="n">
-        <v>0</v>
+        <v>239607</v>
       </c>
       <c r="TB19" t="n">
         <v>0</v>
@@ -33308,7 +33308,7 @@
         <v>31393342</v>
       </c>
       <c r="TA20" t="n">
-        <v>0</v>
+        <v>40554418</v>
       </c>
       <c r="TB20" t="n">
         <v>0</v>
@@ -34901,10 +34901,10 @@
         <v>14043850</v>
       </c>
       <c r="SZ21" t="n">
-        <v>11777474</v>
+        <v>11786232</v>
       </c>
       <c r="TA21" t="n">
-        <v>0</v>
+        <v>12784206</v>
       </c>
       <c r="TB21" t="n">
         <v>0</v>
@@ -36500,7 +36500,7 @@
         <v>81713211</v>
       </c>
       <c r="TA22" t="n">
-        <v>0</v>
+        <v>50193998</v>
       </c>
       <c r="TB22" t="n">
         <v>0</v>
@@ -38093,10 +38093,10 @@
         <v>173339212</v>
       </c>
       <c r="SZ23" t="n">
-        <v>206732958</v>
+        <v>207890168</v>
       </c>
       <c r="TA23" t="n">
-        <v>0</v>
+        <v>187155668</v>
       </c>
       <c r="TB23" t="n">
         <v>0</v>
@@ -42884,7 +42884,7 @@
         <v>15473163</v>
       </c>
       <c r="TA26" t="n">
-        <v>0</v>
+        <v>17441527</v>
       </c>
       <c r="TB26" t="n">
         <v>0</v>
@@ -44477,10 +44477,10 @@
         <v>9133455</v>
       </c>
       <c r="SZ27" t="n">
-        <v>8602568</v>
+        <v>8607902</v>
       </c>
       <c r="TA27" t="n">
-        <v>0</v>
+        <v>11226201</v>
       </c>
       <c r="TB27" t="n">
         <v>0</v>
@@ -46076,7 +46076,7 @@
         <v>20700</v>
       </c>
       <c r="TA28" t="n">
-        <v>0</v>
+        <v>23685</v>
       </c>
       <c r="TB28" t="n">
         <v>0</v>
@@ -47669,10 +47669,10 @@
         <v>407234</v>
       </c>
       <c r="SZ29" t="n">
-        <v>706147</v>
+        <v>708115</v>
       </c>
       <c r="TA29" t="n">
-        <v>0</v>
+        <v>282033</v>
       </c>
       <c r="TB29" t="n">
         <v>0</v>
@@ -49268,7 +49268,7 @@
         <v>4313362</v>
       </c>
       <c r="TA30" t="n">
-        <v>0</v>
+        <v>5374139</v>
       </c>
       <c r="TB30" t="n">
         <v>0</v>
@@ -50861,10 +50861,10 @@
         <v>7082543</v>
       </c>
       <c r="SZ31" t="n">
-        <v>12554705</v>
+        <v>12560729</v>
       </c>
       <c r="TA31" t="n">
-        <v>0</v>
+        <v>11564244</v>
       </c>
       <c r="TB31" t="n">
         <v>0</v>
@@ -52460,7 +52460,7 @@
         <v>2358907</v>
       </c>
       <c r="TA32" t="n">
-        <v>0</v>
+        <v>1808276</v>
       </c>
       <c r="TB32" t="n">
         <v>0</v>
@@ -54053,10 +54053,10 @@
         <v>1042441</v>
       </c>
       <c r="SZ33" t="n">
-        <v>1511790</v>
+        <v>1511953</v>
       </c>
       <c r="TA33" t="n">
-        <v>0</v>
+        <v>1223565</v>
       </c>
       <c r="TB33" t="n">
         <v>0</v>
@@ -55652,7 +55652,7 @@
         <v>2173954</v>
       </c>
       <c r="TA34" t="n">
-        <v>0</v>
+        <v>3459936</v>
       </c>
       <c r="TB34" t="n">
         <v>0</v>
@@ -57248,7 +57248,7 @@
         <v>2167904</v>
       </c>
       <c r="TA35" t="n">
-        <v>0</v>
+        <v>1722672</v>
       </c>
       <c r="TB35" t="n">
         <v>0</v>
@@ -58844,7 +58844,7 @@
         <v>454745</v>
       </c>
       <c r="TA36" t="n">
-        <v>0</v>
+        <v>464327</v>
       </c>
       <c r="TB36" t="n">
         <v>0</v>
@@ -60440,7 +60440,7 @@
         <v>1357646</v>
       </c>
       <c r="TA37" t="n">
-        <v>0</v>
+        <v>1638356</v>
       </c>
       <c r="TB37" t="n">
         <v>0</v>
@@ -62036,7 +62036,7 @@
         <v>1139709</v>
       </c>
       <c r="TA38" t="n">
-        <v>0</v>
+        <v>799187</v>
       </c>
       <c r="TB38" t="n">
         <v>0</v>
@@ -63629,10 +63629,10 @@
         <v>1522114</v>
       </c>
       <c r="SZ39" t="n">
-        <v>1167404</v>
+        <v>1149744</v>
       </c>
       <c r="TA39" t="n">
-        <v>0</v>
+        <v>1579127</v>
       </c>
       <c r="TB39" t="n">
         <v>0</v>
@@ -65228,7 +65228,7 @@
         <v>7827308</v>
       </c>
       <c r="TA40" t="n">
-        <v>0</v>
+        <v>9141880</v>
       </c>
       <c r="TB40" t="n">
         <v>0</v>
@@ -66824,7 +66824,7 @@
         <v>10110665</v>
       </c>
       <c r="TA41" t="n">
-        <v>0</v>
+        <v>6262955</v>
       </c>
       <c r="TB41" t="n">
         <v>0</v>
@@ -68420,7 +68420,7 @@
         <v>302188</v>
       </c>
       <c r="TA42" t="n">
-        <v>0</v>
+        <v>55220</v>
       </c>
       <c r="TB42" t="n">
         <v>0</v>
@@ -70016,7 +70016,7 @@
         <v>134556</v>
       </c>
       <c r="TA43" t="n">
-        <v>0</v>
+        <v>161108</v>
       </c>
       <c r="TB43" t="n">
         <v>0</v>
@@ -71612,7 +71612,7 @@
         <v>154244</v>
       </c>
       <c r="TA44" t="n">
-        <v>0</v>
+        <v>2801</v>
       </c>
       <c r="TB44" t="n">
         <v>0</v>
@@ -73205,10 +73205,10 @@
         <v>143638</v>
       </c>
       <c r="SZ45" t="n">
-        <v>162404</v>
+        <v>162607</v>
       </c>
       <c r="TA45" t="n">
-        <v>0</v>
+        <v>182824</v>
       </c>
       <c r="TB45" t="n">
         <v>0</v>
@@ -74804,7 +74804,7 @@
         <v>18962005</v>
       </c>
       <c r="TA46" t="n">
-        <v>0</v>
+        <v>27732761</v>
       </c>
       <c r="TB46" t="n">
         <v>0</v>
@@ -76397,10 +76397,10 @@
         <v>16807141</v>
       </c>
       <c r="SZ47" t="n">
-        <v>11700274</v>
+        <v>11709051</v>
       </c>
       <c r="TA47" t="n">
-        <v>0</v>
+        <v>16117223</v>
       </c>
       <c r="TB47" t="n">
         <v>0</v>
@@ -77996,7 +77996,7 @@
         <v>1201680</v>
       </c>
       <c r="TA48" t="n">
-        <v>0</v>
+        <v>1568069</v>
       </c>
       <c r="TB48" t="n">
         <v>0</v>
@@ -79589,10 +79589,10 @@
         <v>4590621</v>
       </c>
       <c r="SZ49" t="n">
-        <v>3081829</v>
+        <v>3082022</v>
       </c>
       <c r="TA49" t="n">
-        <v>0</v>
+        <v>2842782</v>
       </c>
       <c r="TB49" t="n">
         <v>0</v>
